--- a/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-patient-avec-INS-conceptmap.xlsx
+++ b/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-patient-avec-INS-conceptmap.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:35+00:00</t>
+    <t>2025-07-21T11:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-patient-avec-INS-conceptmap.xlsx
+++ b/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-patient-avec-INS-conceptmap.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:59:07+00:00</t>
+    <t>2025-07-22T07:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-patient-avec-INS-conceptmap.xlsx
+++ b/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-patient-avec-INS-conceptmap.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T07:44:08+00:00</t>
+    <t>2025-07-23T07:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,37 +83,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR d'un patient avec INS qualifiée d'une prescritpion de médicament</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR d'un patient avec INS qualifiée d'une prescritpion de médicament</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Patient/Ipp</t>
@@ -478,14 +481,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -521,39 +524,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -590,26 +593,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -646,26 +649,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -702,52 +705,52 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -784,39 +787,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -853,39 +856,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -922,26 +925,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -978,26 +981,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
     </row>
